--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/ESTADO CUENTA  AVES BB.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/ESTADO CUENTA  AVES BB.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="183">
   <si>
     <t>03/08/2020</t>
   </si>
@@ -2220,8 +2220,8 @@
   </sheetPr>
   <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G96" sqref="G96"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3329,15 +3329,15 @@
       <c r="D48" s="17">
         <v>24661.62</v>
       </c>
-      <c r="E48" s="52" t="s">
-        <v>1</v>
+      <c r="E48" s="52">
+        <v>44106</v>
       </c>
       <c r="F48" s="17">
-        <v>0</v>
+        <v>24661.62</v>
       </c>
       <c r="G48" s="4">
         <f t="shared" si="0"/>
-        <v>24661.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3353,15 +3353,15 @@
       <c r="D49" s="17">
         <v>20890.53</v>
       </c>
-      <c r="E49" s="52" t="s">
-        <v>1</v>
+      <c r="E49" s="52">
+        <v>44113</v>
       </c>
       <c r="F49" s="17">
-        <v>0</v>
+        <v>20890.53</v>
       </c>
       <c r="G49" s="4">
         <f t="shared" si="0"/>
-        <v>20890.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
